--- a/src/test/resources/Run_Manager_Change_Lessor.xlsx
+++ b/src/test/resources/Run_Manager_Change_Lessor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0E3D36-C592-434C-A7A2-ED78841CF716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F7B62-27EA-47CC-AEAE-F5E93A6C6E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6170" uniqueCount="1919">
   <si>
     <t>P_Key</t>
   </si>
@@ -18996,6 +18996,9 @@
   </si>
   <si>
     <t>New_Document_Number</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -20550,12 +20553,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M567"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B527" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="J559" sqref="J559:J561"/>
+      <selection pane="bottomRight" activeCell="H331" sqref="H331:I331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22575,7 +22578,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J52" s="44" t="s">
         <v>28</v>
@@ -22614,7 +22617,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J53" s="44" t="s">
         <v>28</v>
@@ -22653,7 +22656,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J54" s="44" t="s">
         <v>28</v>
@@ -22692,7 +22695,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J55" s="44" t="s">
         <v>28</v>
@@ -22731,7 +22734,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J56" s="44" t="s">
         <v>28</v>
@@ -22770,7 +22773,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J57" s="44" t="s">
         <v>28</v>
@@ -22809,7 +22812,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J58" s="44" t="s">
         <v>28</v>
@@ -22848,7 +22851,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J59" s="44" t="s">
         <v>28</v>
@@ -22887,7 +22890,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J60" s="44" t="s">
         <v>28</v>
@@ -22926,7 +22929,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J61" s="44" t="s">
         <v>28</v>
@@ -22965,7 +22968,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J62" s="44" t="s">
         <v>28</v>
@@ -23004,7 +23007,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J63" s="44" t="s">
         <v>28</v>
@@ -23043,7 +23046,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J64" s="44" t="s">
         <v>28</v>
@@ -23082,7 +23085,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J65" s="44" t="s">
         <v>28</v>
@@ -23121,7 +23124,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J66" s="44" t="s">
         <v>28</v>
@@ -23160,7 +23163,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J67" s="44" t="s">
         <v>28</v>
@@ -23199,7 +23202,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J68" s="44" t="s">
         <v>28</v>
@@ -23238,7 +23241,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J69" s="44" t="s">
         <v>28</v>
@@ -23277,7 +23280,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J70" s="44" t="s">
         <v>28</v>
@@ -23316,7 +23319,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J71" s="44" t="s">
         <v>28</v>
@@ -23355,7 +23358,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J72" s="44" t="s">
         <v>28</v>
@@ -23394,7 +23397,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J73" s="44" t="s">
         <v>28</v>
@@ -23433,7 +23436,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J74" s="44" t="s">
         <v>28</v>
@@ -23472,7 +23475,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J75" s="44" t="s">
         <v>28</v>
@@ -23511,7 +23514,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J76" s="44" t="s">
         <v>28</v>
@@ -23550,7 +23553,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J77" s="44" t="s">
         <v>28</v>
@@ -23589,7 +23592,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J78" s="44" t="s">
         <v>28</v>
@@ -23628,7 +23631,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J79" s="44" t="s">
         <v>28</v>
@@ -23667,7 +23670,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J80" s="44" t="s">
         <v>28</v>
@@ -23706,7 +23709,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J81" s="44" t="s">
         <v>28</v>
@@ -23745,7 +23748,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J82" s="44" t="s">
         <v>28</v>
@@ -23784,7 +23787,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J83" s="44" t="s">
         <v>28</v>
@@ -23823,7 +23826,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J84" s="44" t="s">
         <v>28</v>
@@ -23862,7 +23865,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J85" s="44" t="s">
         <v>28</v>
@@ -23901,7 +23904,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J86" s="44" t="s">
         <v>28</v>
@@ -23940,7 +23943,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J87" s="44" t="s">
         <v>28</v>
@@ -23979,7 +23982,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J88" s="44" t="s">
         <v>28</v>
@@ -24018,7 +24021,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J89" s="44" t="s">
         <v>28</v>
@@ -24057,7 +24060,7 @@
         <v>246</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J90" s="44" t="s">
         <v>28</v>
@@ -24096,7 +24099,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J91" s="44" t="s">
         <v>28</v>
@@ -24135,7 +24138,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J92" s="44" t="s">
         <v>28</v>
@@ -24174,7 +24177,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J93" s="44" t="s">
         <v>28</v>
@@ -24213,7 +24216,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J94" s="44" t="s">
         <v>28</v>
@@ -24252,7 +24255,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J95" s="44" t="s">
         <v>28</v>
@@ -24291,7 +24294,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J96" s="44" t="s">
         <v>28</v>
@@ -24330,7 +24333,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J97" s="44" t="s">
         <v>28</v>
@@ -24369,7 +24372,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J98" s="44" t="s">
         <v>28</v>
@@ -24408,7 +24411,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J99" s="44" t="s">
         <v>28</v>
@@ -24447,7 +24450,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J100" s="44" t="s">
         <v>28</v>
@@ -24486,7 +24489,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J101" s="44" t="s">
         <v>28</v>
@@ -24525,7 +24528,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J102" s="44" t="s">
         <v>28</v>
@@ -24564,7 +24567,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J103" s="44" t="s">
         <v>28</v>
@@ -24603,7 +24606,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J104" s="44" t="s">
         <v>28</v>
@@ -24642,7 +24645,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J105" s="44" t="s">
         <v>28</v>
@@ -24681,7 +24684,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J106" s="44" t="s">
         <v>28</v>
@@ -24720,7 +24723,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J107" s="44" t="s">
         <v>28</v>
@@ -24759,7 +24762,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J108" s="44" t="s">
         <v>28</v>
@@ -24798,7 +24801,7 @@
         <v>246</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J109" s="44" t="s">
         <v>28</v>
@@ -24837,7 +24840,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J110" s="44" t="s">
         <v>28</v>
@@ -24876,7 +24879,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J111" s="44" t="s">
         <v>28</v>
@@ -24915,7 +24918,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J112" s="44" t="s">
         <v>28</v>
@@ -24954,7 +24957,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J113" s="44" t="s">
         <v>28</v>
@@ -24993,7 +24996,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J114" s="44" t="s">
         <v>28</v>
@@ -25032,7 +25035,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J115" s="44" t="s">
         <v>28</v>
@@ -25071,7 +25074,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J116" s="44" t="s">
         <v>28</v>
@@ -25110,7 +25113,7 @@
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J117" s="44" t="s">
         <v>28</v>
@@ -25149,7 +25152,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J118" s="44" t="s">
         <v>28</v>
@@ -25188,7 +25191,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J119" s="44" t="s">
         <v>28</v>
@@ -25227,7 +25230,7 @@
         <v>246</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J120" s="44" t="s">
         <v>28</v>
@@ -25266,7 +25269,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J121" s="44" t="s">
         <v>28</v>
@@ -25305,7 +25308,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J122" s="44" t="s">
         <v>28</v>
@@ -25344,7 +25347,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J123" s="44" t="s">
         <v>28</v>
@@ -25383,7 +25386,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J124" s="44" t="s">
         <v>28</v>
@@ -25422,7 +25425,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J125" s="44" t="s">
         <v>28</v>
@@ -25461,7 +25464,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J126" s="44" t="s">
         <v>28</v>
@@ -25500,7 +25503,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J127" s="44" t="s">
         <v>28</v>
@@ -25539,7 +25542,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J128" s="44" t="s">
         <v>28</v>
@@ -25578,7 +25581,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J129" s="44" t="s">
         <v>28</v>
@@ -25617,7 +25620,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J130" s="44" t="s">
         <v>28</v>
@@ -25656,7 +25659,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J131" s="44" t="s">
         <v>28</v>
@@ -25695,7 +25698,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J132" s="44" t="s">
         <v>28</v>
@@ -25734,7 +25737,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J133" s="44" t="s">
         <v>28</v>
@@ -25773,7 +25776,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J134" s="44" t="s">
         <v>28</v>
@@ -25843,7 +25846,7 @@
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J136" s="44" t="s">
         <v>28</v>
@@ -25882,7 +25885,7 @@
         <v>246</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J137" s="44" t="s">
         <v>28</v>
@@ -25921,7 +25924,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J138" s="44" t="s">
         <v>28</v>
@@ -25960,7 +25963,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J139" s="44" t="s">
         <v>28</v>
@@ -25999,7 +26002,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J140" s="44" t="s">
         <v>28</v>
@@ -26038,7 +26041,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J141" s="44" t="s">
         <v>28</v>
@@ -26077,7 +26080,7 @@
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J142" s="44" t="s">
         <v>28</v>
@@ -26116,7 +26119,7 @@
         <v>246</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J143" s="44" t="s">
         <v>28</v>
@@ -26155,7 +26158,7 @@
         <v>246</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J144" s="44" t="s">
         <v>28</v>
@@ -26194,7 +26197,7 @@
         <v>246</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J145" s="44" t="s">
         <v>28</v>
@@ -26233,7 +26236,7 @@
         <v>246</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J146" s="44" t="s">
         <v>28</v>
@@ -26272,7 +26275,7 @@
         <v>246</v>
       </c>
       <c r="I147" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J147" s="44" t="s">
         <v>28</v>
@@ -26311,7 +26314,7 @@
         <v>246</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J148" s="44" t="s">
         <v>28</v>
@@ -26350,7 +26353,7 @@
         <v>246</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J149" s="44" t="s">
         <v>28</v>
@@ -26389,7 +26392,7 @@
         <v>246</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J150" s="44" t="s">
         <v>28</v>
@@ -26428,7 +26431,7 @@
         <v>246</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J151" s="44" t="s">
         <v>28</v>
@@ -26467,7 +26470,7 @@
         <v>246</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J152" s="44" t="s">
         <v>28</v>
@@ -26506,7 +26509,7 @@
         <v>246</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J153" s="44" t="s">
         <v>28</v>
@@ -26545,7 +26548,7 @@
         <v>246</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J154" s="44" t="s">
         <v>28</v>
@@ -26584,7 +26587,7 @@
         <v>246</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J155" s="44" t="s">
         <v>28</v>
@@ -26623,7 +26626,7 @@
         <v>246</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J156" s="44" t="s">
         <v>28</v>
@@ -26662,7 +26665,7 @@
         <v>246</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J157" s="44" t="s">
         <v>28</v>
@@ -26732,7 +26735,7 @@
         <v>246</v>
       </c>
       <c r="I159" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J159" s="44" t="s">
         <v>28</v>
@@ -26771,7 +26774,7 @@
         <v>246</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J160" s="44" t="s">
         <v>28</v>
@@ -26810,7 +26813,7 @@
         <v>246</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J161" s="44" t="s">
         <v>28</v>
@@ -26849,7 +26852,7 @@
         <v>246</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J162" s="44" t="s">
         <v>28</v>
@@ -26888,7 +26891,7 @@
         <v>246</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J163" s="44" t="s">
         <v>28</v>
@@ -26927,7 +26930,7 @@
         <v>246</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J164" s="44" t="s">
         <v>28</v>
@@ -26966,7 +26969,7 @@
         <v>246</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J165" s="44" t="s">
         <v>28</v>
@@ -27005,7 +27008,7 @@
         <v>246</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J166" s="44" t="s">
         <v>28</v>
@@ -27044,7 +27047,7 @@
         <v>246</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J167" s="44" t="s">
         <v>28</v>
@@ -27083,7 +27086,7 @@
         <v>246</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J168" s="44" t="s">
         <v>28</v>
@@ -27122,7 +27125,7 @@
         <v>246</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J169" s="44" t="s">
         <v>28</v>
@@ -27161,7 +27164,7 @@
         <v>246</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J170" s="44" t="s">
         <v>28</v>
@@ -27200,7 +27203,7 @@
         <v>246</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J171" s="44" t="s">
         <v>28</v>
@@ -27239,7 +27242,7 @@
         <v>246</v>
       </c>
       <c r="I172" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J172" s="44" t="s">
         <v>28</v>
@@ -27278,7 +27281,7 @@
         <v>246</v>
       </c>
       <c r="I173" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J173" s="44" t="s">
         <v>28</v>
@@ -27317,7 +27320,7 @@
         <v>246</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J174" s="44" t="s">
         <v>28</v>
@@ -27356,7 +27359,7 @@
         <v>246</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J175" s="44" t="s">
         <v>28</v>
@@ -27395,7 +27398,7 @@
         <v>246</v>
       </c>
       <c r="I176" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J176" s="44" t="s">
         <v>28</v>
@@ -27434,7 +27437,7 @@
         <v>246</v>
       </c>
       <c r="I177" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J177" s="44" t="s">
         <v>28</v>
@@ -27504,7 +27507,7 @@
         <v>246</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J179" s="44" t="s">
         <v>28</v>
@@ -27543,7 +27546,7 @@
         <v>246</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J180" s="44" t="s">
         <v>28</v>
@@ -27582,7 +27585,7 @@
         <v>246</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J181" s="44" t="s">
         <v>28</v>
@@ -27621,7 +27624,7 @@
         <v>246</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J182" s="44" t="s">
         <v>28</v>
@@ -27660,7 +27663,7 @@
         <v>246</v>
       </c>
       <c r="I183" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J183" s="44" t="s">
         <v>28</v>
@@ -27730,7 +27733,7 @@
         <v>246</v>
       </c>
       <c r="I185" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J185" s="44" t="s">
         <v>28</v>
@@ -27769,7 +27772,7 @@
         <v>246</v>
       </c>
       <c r="I186" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J186" s="44" t="s">
         <v>28</v>
@@ -27808,7 +27811,7 @@
         <v>246</v>
       </c>
       <c r="I187" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J187" s="44" t="s">
         <v>28</v>
@@ -27847,7 +27850,7 @@
         <v>246</v>
       </c>
       <c r="I188" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J188" s="44" t="s">
         <v>28</v>
@@ -27917,7 +27920,7 @@
         <v>246</v>
       </c>
       <c r="I190" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J190" s="44" t="s">
         <v>28</v>
@@ -27956,7 +27959,7 @@
         <v>246</v>
       </c>
       <c r="I191" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J191" s="44" t="s">
         <v>28</v>
@@ -27995,7 +27998,7 @@
         <v>246</v>
       </c>
       <c r="I192" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J192" s="44" t="s">
         <v>28</v>
@@ -28034,7 +28037,7 @@
         <v>246</v>
       </c>
       <c r="I193" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J193" s="44" t="s">
         <v>28</v>
@@ -28073,7 +28076,7 @@
         <v>246</v>
       </c>
       <c r="I194" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J194" s="44" t="s">
         <v>28</v>
@@ -28141,7 +28144,7 @@
         <v>246</v>
       </c>
       <c r="I196" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J196" s="44" t="s">
         <v>28</v>
@@ -28180,7 +28183,7 @@
         <v>246</v>
       </c>
       <c r="I197" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J197" s="44" t="s">
         <v>28</v>
@@ -28219,7 +28222,7 @@
         <v>246</v>
       </c>
       <c r="I198" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J198" s="44" t="s">
         <v>28</v>
@@ -28258,7 +28261,7 @@
         <v>246</v>
       </c>
       <c r="I199" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J199" s="44" t="s">
         <v>28</v>
@@ -28297,7 +28300,7 @@
         <v>246</v>
       </c>
       <c r="I200" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J200" s="44" t="s">
         <v>28</v>
@@ -28336,7 +28339,7 @@
         <v>246</v>
       </c>
       <c r="I201" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J201" s="44" t="s">
         <v>28</v>
@@ -28375,7 +28378,7 @@
         <v>246</v>
       </c>
       <c r="I202" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J202" s="44" t="s">
         <v>28</v>
@@ -28414,7 +28417,7 @@
         <v>246</v>
       </c>
       <c r="I203" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J203" s="44" t="s">
         <v>28</v>
@@ -28453,7 +28456,7 @@
         <v>246</v>
       </c>
       <c r="I204" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J204" s="44" t="s">
         <v>28</v>
@@ -28492,7 +28495,7 @@
         <v>246</v>
       </c>
       <c r="I205" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J205" s="44" t="s">
         <v>28</v>
@@ -28531,7 +28534,7 @@
         <v>246</v>
       </c>
       <c r="I206" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J206" s="44" t="s">
         <v>28</v>
@@ -28570,7 +28573,7 @@
         <v>246</v>
       </c>
       <c r="I207" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J207" s="44" t="s">
         <v>28</v>
@@ -28609,7 +28612,7 @@
         <v>246</v>
       </c>
       <c r="I208" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J208" s="44" t="s">
         <v>28</v>
@@ -28648,7 +28651,7 @@
         <v>246</v>
       </c>
       <c r="I209" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J209" s="44" t="s">
         <v>28</v>
@@ -28687,7 +28690,7 @@
         <v>246</v>
       </c>
       <c r="I210" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J210" s="44" t="s">
         <v>28</v>
@@ -28726,7 +28729,7 @@
         <v>246</v>
       </c>
       <c r="I211" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J211" s="44" t="s">
         <v>28</v>
@@ -28765,7 +28768,7 @@
         <v>246</v>
       </c>
       <c r="I212" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J212" s="44" t="s">
         <v>28</v>
@@ -28804,7 +28807,7 @@
         <v>246</v>
       </c>
       <c r="I213" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J213" s="44" t="s">
         <v>28</v>
@@ -28843,7 +28846,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J214" s="44" t="s">
         <v>28</v>
@@ -28882,7 +28885,7 @@
         <v>246</v>
       </c>
       <c r="I215" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J215" s="44" t="s">
         <v>28</v>
@@ -28921,7 +28924,7 @@
         <v>246</v>
       </c>
       <c r="I216" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J216" s="44" t="s">
         <v>28</v>
@@ -28960,7 +28963,7 @@
         <v>246</v>
       </c>
       <c r="I217" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J217" s="44" t="s">
         <v>28</v>
@@ -28999,7 +29002,7 @@
         <v>246</v>
       </c>
       <c r="I218" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J218" s="44" t="s">
         <v>28</v>
@@ -29038,7 +29041,7 @@
         <v>246</v>
       </c>
       <c r="I219" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J219" s="44" t="s">
         <v>28</v>
@@ -29077,7 +29080,7 @@
         <v>246</v>
       </c>
       <c r="I220" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J220" s="44" t="s">
         <v>28</v>
@@ -29116,7 +29119,7 @@
         <v>246</v>
       </c>
       <c r="I221" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J221" s="44" t="s">
         <v>28</v>
@@ -29155,7 +29158,7 @@
         <v>246</v>
       </c>
       <c r="I222" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J222" s="44" t="s">
         <v>28</v>
@@ -29194,7 +29197,7 @@
         <v>246</v>
       </c>
       <c r="I223" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J223" s="44" t="s">
         <v>28</v>
@@ -29233,7 +29236,7 @@
         <v>246</v>
       </c>
       <c r="I224" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J224" s="44" t="s">
         <v>28</v>
@@ -29272,7 +29275,7 @@
         <v>246</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J225" s="44" t="s">
         <v>28</v>
@@ -29311,7 +29314,7 @@
         <v>246</v>
       </c>
       <c r="I226" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J226" s="44" t="s">
         <v>28</v>
@@ -29350,7 +29353,7 @@
         <v>246</v>
       </c>
       <c r="I227" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J227" s="44" t="s">
         <v>28</v>
@@ -29389,7 +29392,7 @@
         <v>246</v>
       </c>
       <c r="I228" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J228" s="44" t="s">
         <v>28</v>
@@ -29428,7 +29431,7 @@
         <v>246</v>
       </c>
       <c r="I229" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J229" s="44" t="s">
         <v>28</v>
@@ -29467,7 +29470,7 @@
         <v>246</v>
       </c>
       <c r="I230" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J230" s="44" t="s">
         <v>28</v>
@@ -29506,7 +29509,7 @@
         <v>246</v>
       </c>
       <c r="I231" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J231" s="44" t="s">
         <v>28</v>
@@ -29545,7 +29548,7 @@
         <v>246</v>
       </c>
       <c r="I232" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J232" s="44" t="s">
         <v>28</v>
@@ -29584,7 +29587,7 @@
         <v>246</v>
       </c>
       <c r="I233" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J233" s="44" t="s">
         <v>28</v>
@@ -29623,7 +29626,7 @@
         <v>246</v>
       </c>
       <c r="I234" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J234" s="44" t="s">
         <v>28</v>
@@ -29662,7 +29665,7 @@
         <v>246</v>
       </c>
       <c r="I235" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J235" s="44" t="s">
         <v>28</v>
@@ -29701,7 +29704,7 @@
         <v>246</v>
       </c>
       <c r="I236" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J236" s="44" t="s">
         <v>28</v>
@@ -29740,7 +29743,7 @@
         <v>246</v>
       </c>
       <c r="I237" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J237" s="44" t="s">
         <v>28</v>
@@ -29779,7 +29782,7 @@
         <v>246</v>
       </c>
       <c r="I238" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J238" s="44" t="s">
         <v>28</v>
@@ -29818,7 +29821,7 @@
         <v>246</v>
       </c>
       <c r="I239" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J239" s="44" t="s">
         <v>28</v>
@@ -29857,7 +29860,7 @@
         <v>246</v>
       </c>
       <c r="I240" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J240" s="44" t="s">
         <v>28</v>
@@ -29896,7 +29899,7 @@
         <v>246</v>
       </c>
       <c r="I241" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J241" s="44" t="s">
         <v>28</v>
@@ -29935,7 +29938,7 @@
         <v>246</v>
       </c>
       <c r="I242" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J242" s="44" t="s">
         <v>28</v>
@@ -29974,7 +29977,7 @@
         <v>246</v>
       </c>
       <c r="I243" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J243" s="44" t="s">
         <v>28</v>
@@ -30013,7 +30016,7 @@
         <v>246</v>
       </c>
       <c r="I244" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J244" s="44" t="s">
         <v>28</v>
@@ -30052,7 +30055,7 @@
         <v>246</v>
       </c>
       <c r="I245" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J245" s="44" t="s">
         <v>28</v>
@@ -30091,7 +30094,7 @@
         <v>246</v>
       </c>
       <c r="I246" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J246" s="44" t="s">
         <v>28</v>
@@ -30130,7 +30133,7 @@
         <v>246</v>
       </c>
       <c r="I247" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J247" s="44" t="s">
         <v>28</v>
@@ -30169,7 +30172,7 @@
         <v>246</v>
       </c>
       <c r="I248" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J248" s="44" t="s">
         <v>28</v>
@@ -30208,7 +30211,7 @@
         <v>246</v>
       </c>
       <c r="I249" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J249" s="44" t="s">
         <v>28</v>
@@ -30247,7 +30250,7 @@
         <v>246</v>
       </c>
       <c r="I250" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J250" s="44" t="s">
         <v>28</v>
@@ -30286,7 +30289,7 @@
         <v>246</v>
       </c>
       <c r="I251" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J251" s="44" t="s">
         <v>28</v>
@@ -30325,7 +30328,7 @@
         <v>246</v>
       </c>
       <c r="I252" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J252" s="44" t="s">
         <v>28</v>
@@ -30364,7 +30367,7 @@
         <v>246</v>
       </c>
       <c r="I253" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J253" s="44" t="s">
         <v>28</v>
@@ -30403,7 +30406,7 @@
         <v>246</v>
       </c>
       <c r="I254" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J254" s="44" t="s">
         <v>28</v>
@@ -30442,7 +30445,7 @@
         <v>246</v>
       </c>
       <c r="I255" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J255" s="44" t="s">
         <v>28</v>
@@ -30481,7 +30484,7 @@
         <v>246</v>
       </c>
       <c r="I256" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J256" s="44" t="s">
         <v>28</v>
@@ -30520,7 +30523,7 @@
         <v>246</v>
       </c>
       <c r="I257" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J257" s="44" t="s">
         <v>28</v>
@@ -30559,7 +30562,7 @@
         <v>246</v>
       </c>
       <c r="I258" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J258" s="44" t="s">
         <v>28</v>
@@ -30598,7 +30601,7 @@
         <v>246</v>
       </c>
       <c r="I259" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J259" s="44" t="s">
         <v>28</v>
@@ -30637,7 +30640,7 @@
         <v>246</v>
       </c>
       <c r="I260" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J260" s="44" t="s">
         <v>28</v>
@@ -30676,7 +30679,7 @@
         <v>246</v>
       </c>
       <c r="I261" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J261" s="44" t="s">
         <v>28</v>
@@ -30715,7 +30718,7 @@
         <v>246</v>
       </c>
       <c r="I262" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J262" s="44" t="s">
         <v>28</v>
@@ -30754,7 +30757,7 @@
         <v>246</v>
       </c>
       <c r="I263" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J263" s="44" t="s">
         <v>28</v>
@@ -30793,7 +30796,7 @@
         <v>246</v>
       </c>
       <c r="I264" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J264" s="44" t="s">
         <v>28</v>
@@ -30832,7 +30835,7 @@
         <v>246</v>
       </c>
       <c r="I265" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J265" s="44" t="s">
         <v>28</v>
@@ -30871,7 +30874,7 @@
         <v>246</v>
       </c>
       <c r="I266" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J266" s="44" t="s">
         <v>28</v>
@@ -30910,7 +30913,7 @@
         <v>246</v>
       </c>
       <c r="I267" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J267" s="44" t="s">
         <v>28</v>
@@ -30949,7 +30952,7 @@
         <v>246</v>
       </c>
       <c r="I268" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J268" s="44" t="s">
         <v>28</v>
@@ -30988,7 +30991,7 @@
         <v>246</v>
       </c>
       <c r="I269" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J269" s="44" t="s">
         <v>28</v>
@@ -31027,7 +31030,7 @@
         <v>246</v>
       </c>
       <c r="I270" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J270" s="44" t="s">
         <v>28</v>
@@ -31066,7 +31069,7 @@
         <v>246</v>
       </c>
       <c r="I271" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J271" s="44" t="s">
         <v>28</v>
@@ -31105,7 +31108,7 @@
         <v>246</v>
       </c>
       <c r="I272" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J272" s="44" t="s">
         <v>28</v>
@@ -31144,7 +31147,7 @@
         <v>246</v>
       </c>
       <c r="I273" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J273" s="44" t="s">
         <v>28</v>
@@ -31183,7 +31186,7 @@
         <v>246</v>
       </c>
       <c r="I274" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J274" s="44" t="s">
         <v>28</v>
@@ -31222,7 +31225,7 @@
         <v>246</v>
       </c>
       <c r="I275" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J275" s="44" t="s">
         <v>28</v>
@@ -31261,7 +31264,7 @@
         <v>246</v>
       </c>
       <c r="I276" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J276" s="44" t="s">
         <v>28</v>
@@ -31300,7 +31303,7 @@
         <v>246</v>
       </c>
       <c r="I277" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J277" s="44" t="s">
         <v>28</v>
@@ -31339,7 +31342,7 @@
         <v>246</v>
       </c>
       <c r="I278" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J278" s="44" t="s">
         <v>28</v>
@@ -31378,7 +31381,7 @@
         <v>246</v>
       </c>
       <c r="I279" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J279" s="44" t="s">
         <v>28</v>
@@ -31417,7 +31420,7 @@
         <v>246</v>
       </c>
       <c r="I280" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J280" s="44" t="s">
         <v>28</v>
@@ -31456,7 +31459,7 @@
         <v>246</v>
       </c>
       <c r="I281" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J281" s="44" t="s">
         <v>28</v>
@@ -31526,7 +31529,7 @@
         <v>246</v>
       </c>
       <c r="I283" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J283" s="44" t="s">
         <v>28</v>
@@ -31565,7 +31568,7 @@
         <v>246</v>
       </c>
       <c r="I284" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J284" s="44" t="s">
         <v>28</v>
@@ -31604,7 +31607,7 @@
         <v>246</v>
       </c>
       <c r="I285" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J285" s="44" t="s">
         <v>28</v>
@@ -31643,7 +31646,7 @@
         <v>246</v>
       </c>
       <c r="I286" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J286" s="44" t="s">
         <v>28</v>
@@ -31682,7 +31685,7 @@
         <v>246</v>
       </c>
       <c r="I287" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J287" s="44" t="s">
         <v>28</v>
@@ -31721,7 +31724,7 @@
         <v>246</v>
       </c>
       <c r="I288" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J288" s="44" t="s">
         <v>28</v>
@@ -31760,7 +31763,7 @@
         <v>246</v>
       </c>
       <c r="I289" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J289" s="44" t="s">
         <v>28</v>
@@ -31799,7 +31802,7 @@
         <v>246</v>
       </c>
       <c r="I290" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J290" s="44" t="s">
         <v>28</v>
@@ -31838,7 +31841,7 @@
         <v>246</v>
       </c>
       <c r="I291" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J291" s="44" t="s">
         <v>28</v>
@@ -31877,7 +31880,7 @@
         <v>246</v>
       </c>
       <c r="I292" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J292" s="44" t="s">
         <v>28</v>
@@ -31916,7 +31919,7 @@
         <v>246</v>
       </c>
       <c r="I293" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J293" s="44" t="s">
         <v>28</v>
@@ -31955,7 +31958,7 @@
         <v>246</v>
       </c>
       <c r="I294" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J294" s="44" t="s">
         <v>28</v>
@@ -31994,7 +31997,7 @@
         <v>246</v>
       </c>
       <c r="I295" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J295" s="44" t="s">
         <v>28</v>
@@ -32033,7 +32036,7 @@
         <v>246</v>
       </c>
       <c r="I296" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J296" s="44" t="s">
         <v>28</v>
@@ -32072,7 +32075,7 @@
         <v>246</v>
       </c>
       <c r="I297" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J297" s="44" t="s">
         <v>28</v>
@@ -32111,7 +32114,7 @@
         <v>246</v>
       </c>
       <c r="I298" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J298" s="44" t="s">
         <v>28</v>
@@ -32150,7 +32153,7 @@
         <v>246</v>
       </c>
       <c r="I299" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J299" s="44" t="s">
         <v>28</v>
@@ -32189,7 +32192,7 @@
         <v>246</v>
       </c>
       <c r="I300" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J300" s="44" t="s">
         <v>28</v>
@@ -32228,7 +32231,7 @@
         <v>246</v>
       </c>
       <c r="I301" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J301" s="44" t="s">
         <v>28</v>
@@ -32267,7 +32270,7 @@
         <v>246</v>
       </c>
       <c r="I302" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J302" s="44" t="s">
         <v>28</v>
@@ -32306,7 +32309,7 @@
         <v>246</v>
       </c>
       <c r="I303" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J303" s="44" t="s">
         <v>28</v>
@@ -32345,7 +32348,7 @@
         <v>246</v>
       </c>
       <c r="I304" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J304" s="44" t="s">
         <v>28</v>
@@ -32415,7 +32418,7 @@
         <v>246</v>
       </c>
       <c r="I306" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J306" s="44" t="s">
         <v>28</v>
@@ -32454,7 +32457,7 @@
         <v>246</v>
       </c>
       <c r="I307" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J307" s="44" t="s">
         <v>28</v>
@@ -32493,7 +32496,7 @@
         <v>246</v>
       </c>
       <c r="I308" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J308" s="44" t="s">
         <v>28</v>
@@ -32532,7 +32535,7 @@
         <v>246</v>
       </c>
       <c r="I309" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J309" s="44" t="s">
         <v>28</v>
@@ -32571,7 +32574,7 @@
         <v>246</v>
       </c>
       <c r="I310" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J310" s="44" t="s">
         <v>28</v>
@@ -32610,7 +32613,7 @@
         <v>246</v>
       </c>
       <c r="I311" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J311" s="44" t="s">
         <v>28</v>
@@ -32649,7 +32652,7 @@
         <v>246</v>
       </c>
       <c r="I312" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J312" s="44" t="s">
         <v>28</v>
@@ -32688,7 +32691,7 @@
         <v>246</v>
       </c>
       <c r="I313" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J313" s="44" t="s">
         <v>28</v>
@@ -32727,7 +32730,7 @@
         <v>246</v>
       </c>
       <c r="I314" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J314" s="44" t="s">
         <v>28</v>
@@ -32766,7 +32769,7 @@
         <v>246</v>
       </c>
       <c r="I315" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J315" s="44" t="s">
         <v>28</v>
@@ -32805,7 +32808,7 @@
         <v>246</v>
       </c>
       <c r="I316" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J316" s="44" t="s">
         <v>28</v>
@@ -32844,7 +32847,7 @@
         <v>246</v>
       </c>
       <c r="I317" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J317" s="44" t="s">
         <v>28</v>
@@ -32883,7 +32886,7 @@
         <v>246</v>
       </c>
       <c r="I318" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J318" s="44" t="s">
         <v>28</v>
@@ -32922,7 +32925,7 @@
         <v>246</v>
       </c>
       <c r="I319" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J319" s="44" t="s">
         <v>28</v>
@@ -32961,7 +32964,7 @@
         <v>246</v>
       </c>
       <c r="I320" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J320" s="44" t="s">
         <v>28</v>
@@ -33000,7 +33003,7 @@
         <v>246</v>
       </c>
       <c r="I321" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J321" s="44" t="s">
         <v>28</v>
@@ -33039,7 +33042,7 @@
         <v>246</v>
       </c>
       <c r="I322" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J322" s="44" t="s">
         <v>28</v>
@@ -33078,7 +33081,7 @@
         <v>246</v>
       </c>
       <c r="I323" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J323" s="44" t="s">
         <v>28</v>
@@ -33117,7 +33120,7 @@
         <v>246</v>
       </c>
       <c r="I324" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J324" s="44" t="s">
         <v>28</v>
@@ -33153,7 +33156,9 @@
       <c r="H325" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I325" s="48"/>
+      <c r="I325" s="48" t="s">
+        <v>12</v>
+      </c>
       <c r="J325" s="48" t="s">
         <v>12</v>
       </c>
@@ -33187,7 +33192,7 @@
         <v>246</v>
       </c>
       <c r="I326" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J326" s="44" t="s">
         <v>28</v>
@@ -33226,7 +33231,7 @@
         <v>246</v>
       </c>
       <c r="I327" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J327" s="44" t="s">
         <v>28</v>
@@ -33265,7 +33270,7 @@
         <v>246</v>
       </c>
       <c r="I328" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J328" s="44" t="s">
         <v>28</v>
@@ -33304,7 +33309,7 @@
         <v>246</v>
       </c>
       <c r="I329" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J329" s="44" t="s">
         <v>28</v>
@@ -33343,7 +33348,7 @@
         <v>246</v>
       </c>
       <c r="I330" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J330" s="44" t="s">
         <v>28</v>
@@ -33379,7 +33384,9 @@
       <c r="H331" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I331" s="48"/>
+      <c r="I331" s="48" t="s">
+        <v>12</v>
+      </c>
       <c r="J331" s="48" t="s">
         <v>12</v>
       </c>
@@ -33413,7 +33420,7 @@
         <v>246</v>
       </c>
       <c r="I332" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J332" s="44" t="s">
         <v>28</v>
@@ -33452,7 +33459,7 @@
         <v>246</v>
       </c>
       <c r="I333" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J333" s="44" t="s">
         <v>28</v>
@@ -33491,7 +33498,7 @@
         <v>246</v>
       </c>
       <c r="I334" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J334" s="44" t="s">
         <v>28</v>
@@ -33530,7 +33537,7 @@
         <v>246</v>
       </c>
       <c r="I335" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J335" s="44" t="s">
         <v>28</v>
@@ -33600,7 +33607,7 @@
         <v>246</v>
       </c>
       <c r="I337" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J337" s="44" t="s">
         <v>28</v>
@@ -33639,7 +33646,7 @@
         <v>246</v>
       </c>
       <c r="I338" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J338" s="44" t="s">
         <v>28</v>
@@ -33678,7 +33685,7 @@
         <v>246</v>
       </c>
       <c r="I339" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J339" s="44" t="s">
         <v>28</v>
@@ -33717,7 +33724,7 @@
         <v>246</v>
       </c>
       <c r="I340" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J340" s="44" t="s">
         <v>28</v>
@@ -33756,7 +33763,7 @@
         <v>246</v>
       </c>
       <c r="I341" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J341" s="44" t="s">
         <v>28</v>
@@ -33826,7 +33833,7 @@
         <v>246</v>
       </c>
       <c r="I343" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J343" s="44" t="s">
         <v>28</v>
@@ -33865,7 +33872,7 @@
         <v>246</v>
       </c>
       <c r="I344" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J344" s="44" t="s">
         <v>28</v>
@@ -33904,7 +33911,7 @@
         <v>246</v>
       </c>
       <c r="I345" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J345" s="44" t="s">
         <v>28</v>
@@ -33943,7 +33950,7 @@
         <v>246</v>
       </c>
       <c r="I346" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J346" s="44" t="s">
         <v>28</v>
@@ -33982,7 +33989,7 @@
         <v>246</v>
       </c>
       <c r="I347" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J347" s="44" t="s">
         <v>28</v>
@@ -34021,7 +34028,7 @@
         <v>246</v>
       </c>
       <c r="I348" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J348" s="44" t="s">
         <v>28</v>
@@ -34060,7 +34067,7 @@
         <v>246</v>
       </c>
       <c r="I349" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J349" s="44" t="s">
         <v>28</v>
@@ -34099,7 +34106,7 @@
         <v>246</v>
       </c>
       <c r="I350" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J350" s="44" t="s">
         <v>28</v>
@@ -34138,7 +34145,7 @@
         <v>246</v>
       </c>
       <c r="I351" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J351" s="44" t="s">
         <v>28</v>
@@ -34177,7 +34184,7 @@
         <v>246</v>
       </c>
       <c r="I352" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J352" s="44" t="s">
         <v>28</v>
@@ -34216,7 +34223,7 @@
         <v>246</v>
       </c>
       <c r="I353" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J353" s="44" t="s">
         <v>28</v>
@@ -34255,7 +34262,7 @@
         <v>246</v>
       </c>
       <c r="I354" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J354" s="44" t="s">
         <v>28</v>
@@ -34294,7 +34301,7 @@
         <v>246</v>
       </c>
       <c r="I355" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J355" s="44" t="s">
         <v>28</v>
@@ -34333,7 +34340,7 @@
         <v>246</v>
       </c>
       <c r="I356" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J356" s="44" t="s">
         <v>28</v>
@@ -34372,7 +34379,7 @@
         <v>246</v>
       </c>
       <c r="I357" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J357" s="44" t="s">
         <v>28</v>
@@ -34411,7 +34418,7 @@
         <v>246</v>
       </c>
       <c r="I358" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J358" s="44" t="s">
         <v>28</v>
@@ -34450,7 +34457,7 @@
         <v>246</v>
       </c>
       <c r="I359" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J359" s="44" t="s">
         <v>28</v>
@@ -34489,7 +34496,7 @@
         <v>246</v>
       </c>
       <c r="I360" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J360" s="44" t="s">
         <v>28</v>
@@ -34528,7 +34535,7 @@
         <v>246</v>
       </c>
       <c r="I361" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J361" s="44" t="s">
         <v>28</v>
@@ -34567,7 +34574,7 @@
         <v>246</v>
       </c>
       <c r="I362" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J362" s="44" t="s">
         <v>28</v>
@@ -34606,7 +34613,7 @@
         <v>246</v>
       </c>
       <c r="I363" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J363" s="44" t="s">
         <v>28</v>
@@ -34645,7 +34652,7 @@
         <v>246</v>
       </c>
       <c r="I364" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J364" s="44" t="s">
         <v>28</v>
@@ -34684,7 +34691,7 @@
         <v>246</v>
       </c>
       <c r="I365" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J365" s="44" t="s">
         <v>28</v>
@@ -34723,7 +34730,7 @@
         <v>246</v>
       </c>
       <c r="I366" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J366" s="44" t="s">
         <v>28</v>
@@ -34762,7 +34769,7 @@
         <v>246</v>
       </c>
       <c r="I367" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J367" s="44" t="s">
         <v>28</v>
@@ -34801,7 +34808,7 @@
         <v>246</v>
       </c>
       <c r="I368" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J368" s="44" t="s">
         <v>28</v>
@@ -34871,7 +34878,7 @@
         <v>246</v>
       </c>
       <c r="I370" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J370" s="44" t="s">
         <v>28</v>
@@ -34910,7 +34917,7 @@
         <v>246</v>
       </c>
       <c r="I371" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J371" s="44" t="s">
         <v>28</v>
@@ -34949,7 +34956,7 @@
         <v>246</v>
       </c>
       <c r="I372" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J372" s="44" t="s">
         <v>28</v>
@@ -34988,7 +34995,7 @@
         <v>246</v>
       </c>
       <c r="I373" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J373" s="44" t="s">
         <v>28</v>
@@ -35027,7 +35034,7 @@
         <v>246</v>
       </c>
       <c r="I374" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J374" s="44" t="s">
         <v>28</v>
@@ -35066,7 +35073,7 @@
         <v>246</v>
       </c>
       <c r="I375" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J375" s="44" t="s">
         <v>28</v>
@@ -35105,7 +35112,7 @@
         <v>246</v>
       </c>
       <c r="I376" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J376" s="44" t="s">
         <v>28</v>
@@ -35144,7 +35151,7 @@
         <v>246</v>
       </c>
       <c r="I377" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J377" s="44" t="s">
         <v>28</v>
@@ -35183,7 +35190,7 @@
         <v>246</v>
       </c>
       <c r="I378" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J378" s="44" t="s">
         <v>28</v>
@@ -35222,7 +35229,7 @@
         <v>246</v>
       </c>
       <c r="I379" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J379" s="44" t="s">
         <v>28</v>
@@ -35261,7 +35268,7 @@
         <v>246</v>
       </c>
       <c r="I380" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J380" s="44" t="s">
         <v>28</v>
@@ -35300,7 +35307,7 @@
         <v>246</v>
       </c>
       <c r="I381" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J381" s="44" t="s">
         <v>28</v>
@@ -35339,7 +35346,7 @@
         <v>246</v>
       </c>
       <c r="I382" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J382" s="44" t="s">
         <v>28</v>
@@ -35378,7 +35385,7 @@
         <v>246</v>
       </c>
       <c r="I383" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J383" s="44" t="s">
         <v>28</v>
@@ -35417,7 +35424,7 @@
         <v>246</v>
       </c>
       <c r="I384" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J384" s="44" t="s">
         <v>28</v>
@@ -35456,7 +35463,7 @@
         <v>246</v>
       </c>
       <c r="I385" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J385" s="44" t="s">
         <v>28</v>
@@ -35495,7 +35502,7 @@
         <v>246</v>
       </c>
       <c r="I386" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J386" s="44" t="s">
         <v>28</v>
@@ -35534,7 +35541,7 @@
         <v>246</v>
       </c>
       <c r="I387" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J387" s="44" t="s">
         <v>28</v>
@@ -35573,7 +35580,7 @@
         <v>246</v>
       </c>
       <c r="I388" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J388" s="44" t="s">
         <v>28</v>
@@ -35612,7 +35619,7 @@
         <v>246</v>
       </c>
       <c r="I389" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J389" s="44" t="s">
         <v>28</v>
@@ -35651,7 +35658,7 @@
         <v>246</v>
       </c>
       <c r="I390" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J390" s="44" t="s">
         <v>28</v>
@@ -35690,7 +35697,7 @@
         <v>246</v>
       </c>
       <c r="I391" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J391" s="44" t="s">
         <v>28</v>
@@ -35760,7 +35767,7 @@
         <v>246</v>
       </c>
       <c r="I393" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J393" s="44" t="s">
         <v>28</v>
@@ -35799,7 +35806,7 @@
         <v>246</v>
       </c>
       <c r="I394" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J394" s="44" t="s">
         <v>28</v>
@@ -35838,7 +35845,7 @@
         <v>246</v>
       </c>
       <c r="I395" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J395" s="44" t="s">
         <v>28</v>
@@ -35877,7 +35884,7 @@
         <v>246</v>
       </c>
       <c r="I396" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J396" s="44" t="s">
         <v>28</v>
@@ -35916,7 +35923,7 @@
         <v>246</v>
       </c>
       <c r="I397" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J397" s="44" t="s">
         <v>28</v>
@@ -35955,7 +35962,7 @@
         <v>246</v>
       </c>
       <c r="I398" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J398" s="44" t="s">
         <v>28</v>
@@ -35994,7 +36001,7 @@
         <v>246</v>
       </c>
       <c r="I399" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J399" s="44" t="s">
         <v>28</v>
@@ -36033,7 +36040,7 @@
         <v>246</v>
       </c>
       <c r="I400" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J400" s="44" t="s">
         <v>28</v>
@@ -36072,7 +36079,7 @@
         <v>246</v>
       </c>
       <c r="I401" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J401" s="44" t="s">
         <v>28</v>
@@ -36111,7 +36118,7 @@
         <v>246</v>
       </c>
       <c r="I402" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J402" s="44" t="s">
         <v>28</v>
@@ -36150,7 +36157,7 @@
         <v>246</v>
       </c>
       <c r="I403" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J403" s="44" t="s">
         <v>28</v>
@@ -36189,7 +36196,7 @@
         <v>246</v>
       </c>
       <c r="I404" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J404" s="44" t="s">
         <v>28</v>
@@ -36228,7 +36235,7 @@
         <v>246</v>
       </c>
       <c r="I405" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J405" s="44" t="s">
         <v>28</v>
@@ -36267,7 +36274,7 @@
         <v>246</v>
       </c>
       <c r="I406" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J406" s="44" t="s">
         <v>28</v>
@@ -36306,7 +36313,7 @@
         <v>246</v>
       </c>
       <c r="I407" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J407" s="44" t="s">
         <v>28</v>
@@ -36345,7 +36352,7 @@
         <v>246</v>
       </c>
       <c r="I408" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J408" s="44" t="s">
         <v>28</v>
@@ -36384,7 +36391,7 @@
         <v>246</v>
       </c>
       <c r="I409" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J409" s="44" t="s">
         <v>28</v>
@@ -36423,7 +36430,7 @@
         <v>246</v>
       </c>
       <c r="I410" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J410" s="44" t="s">
         <v>28</v>
@@ -36462,7 +36469,7 @@
         <v>246</v>
       </c>
       <c r="I411" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J411" s="44" t="s">
         <v>28</v>
@@ -36532,7 +36539,7 @@
         <v>246</v>
       </c>
       <c r="I413" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J413" s="44" t="s">
         <v>28</v>
@@ -36571,7 +36578,7 @@
         <v>246</v>
       </c>
       <c r="I414" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J414" s="44" t="s">
         <v>28</v>
@@ -36610,7 +36617,7 @@
         <v>246</v>
       </c>
       <c r="I415" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J415" s="44" t="s">
         <v>28</v>
@@ -36649,7 +36656,7 @@
         <v>246</v>
       </c>
       <c r="I416" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J416" s="44" t="s">
         <v>28</v>
@@ -36719,7 +36726,7 @@
         <v>246</v>
       </c>
       <c r="I418" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J418" s="44" t="s">
         <v>28</v>
@@ -36758,7 +36765,7 @@
         <v>246</v>
       </c>
       <c r="I419" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J419" s="44" t="s">
         <v>28</v>
@@ -36797,7 +36804,7 @@
         <v>246</v>
       </c>
       <c r="I420" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J420" s="44" t="s">
         <v>28</v>
@@ -36836,7 +36843,7 @@
         <v>246</v>
       </c>
       <c r="I421" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J421" s="44" t="s">
         <v>28</v>
@@ -36906,7 +36913,7 @@
         <v>246</v>
       </c>
       <c r="I423" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J423" s="44" t="s">
         <v>28</v>
@@ -36945,7 +36952,7 @@
         <v>246</v>
       </c>
       <c r="I424" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J424" s="44" t="s">
         <v>28</v>
@@ -36984,7 +36991,7 @@
         <v>246</v>
       </c>
       <c r="I425" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J425" s="44" t="s">
         <v>28</v>
@@ -37023,7 +37030,7 @@
         <v>246</v>
       </c>
       <c r="I426" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J426" s="44" t="s">
         <v>28</v>
@@ -37062,7 +37069,7 @@
         <v>246</v>
       </c>
       <c r="I427" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J427" s="44" t="s">
         <v>28</v>
@@ -37130,7 +37137,7 @@
         <v>246</v>
       </c>
       <c r="I429" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J429" s="44" t="s">
         <v>28</v>
@@ -37169,7 +37176,7 @@
         <v>246</v>
       </c>
       <c r="I430" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J430" s="44" t="s">
         <v>28</v>
@@ -37208,7 +37215,7 @@
         <v>246</v>
       </c>
       <c r="I431" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J431" s="44" t="s">
         <v>28</v>
@@ -37247,7 +37254,7 @@
         <v>246</v>
       </c>
       <c r="I432" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J432" s="44" t="s">
         <v>28</v>
@@ -37286,7 +37293,7 @@
         <v>246</v>
       </c>
       <c r="I433" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J433" s="44" t="s">
         <v>28</v>
@@ -37325,7 +37332,7 @@
         <v>246</v>
       </c>
       <c r="I434" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J434" s="44" t="s">
         <v>28</v>
@@ -37364,7 +37371,7 @@
         <v>246</v>
       </c>
       <c r="I435" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J435" s="44" t="s">
         <v>28</v>
@@ -37403,7 +37410,7 @@
         <v>246</v>
       </c>
       <c r="I436" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J436" s="44" t="s">
         <v>28</v>
@@ -37442,7 +37449,7 @@
         <v>246</v>
       </c>
       <c r="I437" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J437" s="44" t="s">
         <v>28</v>
@@ -37481,7 +37488,7 @@
         <v>246</v>
       </c>
       <c r="I438" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J438" s="44" t="s">
         <v>28</v>
@@ -37520,7 +37527,7 @@
         <v>246</v>
       </c>
       <c r="I439" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J439" s="44" t="s">
         <v>28</v>
@@ -37559,7 +37566,7 @@
         <v>246</v>
       </c>
       <c r="I440" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J440" s="44" t="s">
         <v>28</v>
@@ -37598,7 +37605,7 @@
         <v>246</v>
       </c>
       <c r="I441" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J441" s="44" t="s">
         <v>28</v>
@@ -37637,7 +37644,7 @@
         <v>246</v>
       </c>
       <c r="I442" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J442" s="44" t="s">
         <v>28</v>
@@ -37676,7 +37683,7 @@
         <v>246</v>
       </c>
       <c r="I443" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J443" s="44" t="s">
         <v>28</v>
@@ -37715,7 +37722,7 @@
         <v>246</v>
       </c>
       <c r="I444" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J444" s="44" t="s">
         <v>28</v>
@@ -37754,7 +37761,7 @@
         <v>246</v>
       </c>
       <c r="I445" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J445" s="44" t="s">
         <v>28</v>
@@ -37793,7 +37800,7 @@
         <v>246</v>
       </c>
       <c r="I446" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J446" s="44" t="s">
         <v>28</v>
@@ -37832,7 +37839,7 @@
         <v>246</v>
       </c>
       <c r="I447" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J447" s="44" t="s">
         <v>28</v>
@@ -37871,7 +37878,7 @@
         <v>246</v>
       </c>
       <c r="I448" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J448" s="44" t="s">
         <v>28</v>
@@ -37910,7 +37917,7 @@
         <v>246</v>
       </c>
       <c r="I449" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J449" s="44" t="s">
         <v>28</v>
@@ -37949,7 +37956,7 @@
         <v>246</v>
       </c>
       <c r="I450" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J450" s="44" t="s">
         <v>28</v>
@@ -37988,7 +37995,7 @@
         <v>246</v>
       </c>
       <c r="I451" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J451" s="44" t="s">
         <v>28</v>
@@ -38027,7 +38034,7 @@
         <v>246</v>
       </c>
       <c r="I452" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J452" s="44" t="s">
         <v>28</v>
@@ -38066,7 +38073,7 @@
         <v>246</v>
       </c>
       <c r="I453" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J453" s="44" t="s">
         <v>28</v>
@@ -38105,7 +38112,7 @@
         <v>246</v>
       </c>
       <c r="I454" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J454" s="44" t="s">
         <v>28</v>
@@ -38144,7 +38151,7 @@
         <v>246</v>
       </c>
       <c r="I455" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J455" s="44" t="s">
         <v>28</v>
@@ -38183,7 +38190,7 @@
         <v>246</v>
       </c>
       <c r="I456" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J456" s="44" t="s">
         <v>28</v>
@@ -38222,7 +38229,7 @@
         <v>246</v>
       </c>
       <c r="I457" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J457" s="44" t="s">
         <v>28</v>
@@ -38261,7 +38268,7 @@
         <v>246</v>
       </c>
       <c r="I458" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J458" s="44" t="s">
         <v>28</v>
@@ -38300,7 +38307,7 @@
         <v>246</v>
       </c>
       <c r="I459" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J459" s="44" t="s">
         <v>28</v>
@@ -38339,7 +38346,7 @@
         <v>246</v>
       </c>
       <c r="I460" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J460" s="44" t="s">
         <v>28</v>
@@ -38378,7 +38385,7 @@
         <v>246</v>
       </c>
       <c r="I461" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J461" s="44" t="s">
         <v>28</v>
@@ -38417,7 +38424,7 @@
         <v>246</v>
       </c>
       <c r="I462" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J462" s="44" t="s">
         <v>28</v>
@@ -38456,7 +38463,7 @@
         <v>246</v>
       </c>
       <c r="I463" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J463" s="44" t="s">
         <v>28</v>
@@ -38495,7 +38502,7 @@
         <v>246</v>
       </c>
       <c r="I464" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J464" s="44" t="s">
         <v>28</v>
@@ -38534,7 +38541,7 @@
         <v>246</v>
       </c>
       <c r="I465" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J465" s="44" t="s">
         <v>28</v>
@@ -38573,7 +38580,7 @@
         <v>246</v>
       </c>
       <c r="I466" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J466" s="44" t="s">
         <v>28</v>
@@ -38612,7 +38619,7 @@
         <v>246</v>
       </c>
       <c r="I467" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J467" s="44" t="s">
         <v>28</v>
@@ -38651,7 +38658,7 @@
         <v>246</v>
       </c>
       <c r="I468" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J468" s="44" t="s">
         <v>28</v>
@@ -38690,7 +38697,7 @@
         <v>246</v>
       </c>
       <c r="I469" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J469" s="44" t="s">
         <v>28</v>
@@ -38729,7 +38736,7 @@
         <v>246</v>
       </c>
       <c r="I470" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J470" s="44" t="s">
         <v>28</v>
@@ -38768,7 +38775,7 @@
         <v>246</v>
       </c>
       <c r="I471" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J471" s="44" t="s">
         <v>28</v>
@@ -38807,7 +38814,7 @@
         <v>246</v>
       </c>
       <c r="I472" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J472" s="44" t="s">
         <v>28</v>
@@ -38846,7 +38853,7 @@
         <v>246</v>
       </c>
       <c r="I473" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J473" s="44" t="s">
         <v>28</v>
@@ -38885,7 +38892,7 @@
         <v>246</v>
       </c>
       <c r="I474" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J474" s="44" t="s">
         <v>28</v>
@@ -38924,7 +38931,7 @@
         <v>246</v>
       </c>
       <c r="I475" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J475" s="44" t="s">
         <v>28</v>
@@ -38963,7 +38970,7 @@
         <v>246</v>
       </c>
       <c r="I476" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J476" s="44" t="s">
         <v>28</v>
@@ -39002,7 +39009,7 @@
         <v>246</v>
       </c>
       <c r="I477" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J477" s="44" t="s">
         <v>28</v>
@@ -39041,7 +39048,7 @@
         <v>246</v>
       </c>
       <c r="I478" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J478" s="44" t="s">
         <v>28</v>
@@ -39080,7 +39087,7 @@
         <v>246</v>
       </c>
       <c r="I479" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J479" s="44" t="s">
         <v>28</v>
@@ -39119,7 +39126,7 @@
         <v>246</v>
       </c>
       <c r="I480" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J480" s="44" t="s">
         <v>28</v>
@@ -39158,7 +39165,7 @@
         <v>246</v>
       </c>
       <c r="I481" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J481" s="44" t="s">
         <v>28</v>
@@ -39197,7 +39204,7 @@
         <v>246</v>
       </c>
       <c r="I482" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J482" s="44" t="s">
         <v>28</v>
@@ -39236,7 +39243,7 @@
         <v>246</v>
       </c>
       <c r="I483" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J483" s="44" t="s">
         <v>28</v>
@@ -39275,7 +39282,7 @@
         <v>246</v>
       </c>
       <c r="I484" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J484" s="44" t="s">
         <v>28</v>
@@ -39314,7 +39321,7 @@
         <v>246</v>
       </c>
       <c r="I485" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J485" s="44" t="s">
         <v>28</v>
@@ -39353,7 +39360,7 @@
         <v>246</v>
       </c>
       <c r="I486" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J486" s="44" t="s">
         <v>28</v>
@@ -39392,7 +39399,7 @@
         <v>246</v>
       </c>
       <c r="I487" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J487" s="44" t="s">
         <v>28</v>
@@ -39431,7 +39438,7 @@
         <v>246</v>
       </c>
       <c r="I488" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J488" s="44" t="s">
         <v>28</v>
@@ -39470,7 +39477,7 @@
         <v>246</v>
       </c>
       <c r="I489" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J489" s="44" t="s">
         <v>28</v>
@@ -39509,7 +39516,7 @@
         <v>246</v>
       </c>
       <c r="I490" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J490" s="44" t="s">
         <v>28</v>
@@ -39548,7 +39555,7 @@
         <v>246</v>
       </c>
       <c r="I491" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J491" s="44" t="s">
         <v>28</v>
@@ -39587,7 +39594,7 @@
         <v>246</v>
       </c>
       <c r="I492" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J492" s="44" t="s">
         <v>28</v>
@@ -39626,7 +39633,7 @@
         <v>246</v>
       </c>
       <c r="I493" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J493" s="44" t="s">
         <v>28</v>
@@ -39665,7 +39672,7 @@
         <v>246</v>
       </c>
       <c r="I494" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J494" s="44" t="s">
         <v>28</v>
@@ -39704,7 +39711,7 @@
         <v>246</v>
       </c>
       <c r="I495" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J495" s="44" t="s">
         <v>28</v>
@@ -39743,7 +39750,7 @@
         <v>246</v>
       </c>
       <c r="I496" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J496" s="44" t="s">
         <v>28</v>
@@ -39782,7 +39789,7 @@
         <v>246</v>
       </c>
       <c r="I497" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J497" s="44" t="s">
         <v>28</v>
@@ -39821,7 +39828,7 @@
         <v>246</v>
       </c>
       <c r="I498" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J498" s="44" t="s">
         <v>28</v>
@@ -39860,7 +39867,7 @@
         <v>246</v>
       </c>
       <c r="I499" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J499" s="44" t="s">
         <v>28</v>
@@ -39899,7 +39906,7 @@
         <v>246</v>
       </c>
       <c r="I500" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J500" s="44" t="s">
         <v>28</v>
@@ -39938,7 +39945,7 @@
         <v>246</v>
       </c>
       <c r="I501" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J501" s="44" t="s">
         <v>28</v>
@@ -39977,7 +39984,7 @@
         <v>246</v>
       </c>
       <c r="I502" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J502" s="44" t="s">
         <v>28</v>
@@ -40016,7 +40023,7 @@
         <v>246</v>
       </c>
       <c r="I503" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J503" s="44" t="s">
         <v>28</v>
@@ -40055,7 +40062,7 @@
         <v>246</v>
       </c>
       <c r="I504" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J504" s="44" t="s">
         <v>28</v>
@@ -40094,7 +40101,7 @@
         <v>246</v>
       </c>
       <c r="I505" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J505" s="44" t="s">
         <v>28</v>
@@ -40133,7 +40140,7 @@
         <v>246</v>
       </c>
       <c r="I506" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J506" s="44" t="s">
         <v>28</v>
@@ -40172,7 +40179,7 @@
         <v>1170</v>
       </c>
       <c r="I507" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J507" s="44" t="s">
         <v>28</v>
@@ -40240,7 +40247,7 @@
         <v>246</v>
       </c>
       <c r="I509" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J509" s="44" t="s">
         <v>28</v>
@@ -40279,7 +40286,7 @@
         <v>246</v>
       </c>
       <c r="I510" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J510" s="44" t="s">
         <v>28</v>
@@ -40318,7 +40325,7 @@
         <v>246</v>
       </c>
       <c r="I511" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J511" s="44" t="s">
         <v>28</v>
@@ -40357,7 +40364,7 @@
         <v>246</v>
       </c>
       <c r="I512" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J512" s="44" t="s">
         <v>28</v>
@@ -40396,7 +40403,7 @@
         <v>246</v>
       </c>
       <c r="I513" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J513" s="44" t="s">
         <v>28</v>
@@ -40435,7 +40442,7 @@
         <v>246</v>
       </c>
       <c r="I514" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J514" s="44" t="s">
         <v>28</v>
@@ -40474,7 +40481,7 @@
         <v>246</v>
       </c>
       <c r="I515" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J515" s="44" t="s">
         <v>28</v>
@@ -40513,7 +40520,7 @@
         <v>246</v>
       </c>
       <c r="I516" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J516" s="44" t="s">
         <v>28</v>
@@ -40552,7 +40559,7 @@
         <v>246</v>
       </c>
       <c r="I517" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J517" s="44" t="s">
         <v>28</v>
@@ -40591,7 +40598,7 @@
         <v>246</v>
       </c>
       <c r="I518" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J518" s="44" t="s">
         <v>28</v>
@@ -40630,7 +40637,7 @@
         <v>246</v>
       </c>
       <c r="I519" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J519" s="44" t="s">
         <v>28</v>
@@ -40669,7 +40676,7 @@
         <v>246</v>
       </c>
       <c r="I520" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J520" s="44" t="s">
         <v>28</v>
@@ -40708,7 +40715,7 @@
         <v>246</v>
       </c>
       <c r="I521" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J521" s="44" t="s">
         <v>28</v>
@@ -40747,7 +40754,7 @@
         <v>246</v>
       </c>
       <c r="I522" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J522" s="44" t="s">
         <v>28</v>
@@ -40786,7 +40793,7 @@
         <v>246</v>
       </c>
       <c r="I523" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J523" s="44" t="s">
         <v>28</v>
@@ -40825,7 +40832,7 @@
         <v>246</v>
       </c>
       <c r="I524" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J524" s="44" t="s">
         <v>28</v>
@@ -40864,7 +40871,7 @@
         <v>246</v>
       </c>
       <c r="I525" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J525" s="44" t="s">
         <v>28</v>
@@ -40903,7 +40910,7 @@
         <v>246</v>
       </c>
       <c r="I526" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J526" s="44" t="s">
         <v>28</v>
@@ -40942,7 +40949,7 @@
         <v>246</v>
       </c>
       <c r="I527" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J527" s="44" t="s">
         <v>28</v>
@@ -40981,7 +40988,7 @@
         <v>246</v>
       </c>
       <c r="I528" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J528" s="44" t="s">
         <v>28</v>
@@ -41020,7 +41027,7 @@
         <v>246</v>
       </c>
       <c r="I529" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J529" s="44" t="s">
         <v>28</v>
@@ -41059,7 +41066,7 @@
         <v>246</v>
       </c>
       <c r="I530" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J530" s="44" t="s">
         <v>28</v>
@@ -41129,7 +41136,7 @@
         <v>246</v>
       </c>
       <c r="I532" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J532" s="44" t="s">
         <v>28</v>
@@ -41168,7 +41175,7 @@
         <v>246</v>
       </c>
       <c r="I533" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J533" s="44" t="s">
         <v>28</v>
@@ -41207,7 +41214,7 @@
         <v>246</v>
       </c>
       <c r="I534" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J534" s="44" t="s">
         <v>28</v>
@@ -41246,7 +41253,7 @@
         <v>246</v>
       </c>
       <c r="I535" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J535" s="44" t="s">
         <v>28</v>
@@ -41285,7 +41292,7 @@
         <v>246</v>
       </c>
       <c r="I536" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J536" s="44" t="s">
         <v>28</v>
@@ -41324,7 +41331,7 @@
         <v>246</v>
       </c>
       <c r="I537" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J537" s="44" t="s">
         <v>28</v>
@@ -41363,7 +41370,7 @@
         <v>246</v>
       </c>
       <c r="I538" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J538" s="44" t="s">
         <v>28</v>
@@ -41402,7 +41409,7 @@
         <v>246</v>
       </c>
       <c r="I539" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J539" s="44" t="s">
         <v>28</v>
@@ -41441,7 +41448,7 @@
         <v>246</v>
       </c>
       <c r="I540" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J540" s="44" t="s">
         <v>28</v>
@@ -41480,7 +41487,7 @@
         <v>246</v>
       </c>
       <c r="I541" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J541" s="44" t="s">
         <v>28</v>
@@ -41519,7 +41526,7 @@
         <v>246</v>
       </c>
       <c r="I542" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J542" s="44" t="s">
         <v>28</v>
@@ -41558,7 +41565,7 @@
         <v>246</v>
       </c>
       <c r="I543" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J543" s="44" t="s">
         <v>28</v>
@@ -41597,7 +41604,7 @@
         <v>246</v>
       </c>
       <c r="I544" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J544" s="44" t="s">
         <v>28</v>
@@ -41636,7 +41643,7 @@
         <v>246</v>
       </c>
       <c r="I545" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J545" s="44" t="s">
         <v>28</v>
@@ -41675,7 +41682,7 @@
         <v>246</v>
       </c>
       <c r="I546" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J546" s="44" t="s">
         <v>28</v>
@@ -41714,7 +41721,7 @@
         <v>246</v>
       </c>
       <c r="I547" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J547" s="44" t="s">
         <v>28</v>
@@ -41753,7 +41760,7 @@
         <v>246</v>
       </c>
       <c r="I548" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J548" s="44" t="s">
         <v>28</v>
@@ -41792,7 +41799,7 @@
         <v>246</v>
       </c>
       <c r="I549" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J549" s="44" t="s">
         <v>28</v>
@@ -41831,7 +41838,7 @@
         <v>246</v>
       </c>
       <c r="I550" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J550" s="44" t="s">
         <v>28</v>
@@ -41899,7 +41906,7 @@
         <v>246</v>
       </c>
       <c r="I552" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J552" s="44" t="s">
         <v>28</v>
@@ -41938,7 +41945,7 @@
         <v>246</v>
       </c>
       <c r="I553" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J553" s="44" t="s">
         <v>28</v>
@@ -41977,7 +41984,7 @@
         <v>246</v>
       </c>
       <c r="I554" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J554" s="44" t="s">
         <v>28</v>
@@ -42016,7 +42023,7 @@
         <v>246</v>
       </c>
       <c r="I555" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J555" s="44" t="s">
         <v>28</v>
@@ -42055,7 +42062,7 @@
         <v>246</v>
       </c>
       <c r="I556" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J556" s="44" t="s">
         <v>28</v>
@@ -42123,7 +42130,7 @@
         <v>246</v>
       </c>
       <c r="I558" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J558" s="44" t="s">
         <v>28</v>
@@ -42162,7 +42169,7 @@
         <v>246</v>
       </c>
       <c r="I559" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J559" s="44" t="s">
         <v>28</v>
@@ -42201,7 +42208,7 @@
         <v>246</v>
       </c>
       <c r="I560" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J560" s="44" t="s">
         <v>28</v>
@@ -42240,7 +42247,7 @@
         <v>246</v>
       </c>
       <c r="I561" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J561" s="44" t="s">
         <v>28</v>
@@ -42308,7 +42315,7 @@
         <v>246</v>
       </c>
       <c r="I563" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J563" s="44" t="s">
         <v>28</v>
@@ -42347,7 +42354,7 @@
         <v>246</v>
       </c>
       <c r="I564" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J564" s="44" t="s">
         <v>28</v>
@@ -42386,7 +42393,7 @@
         <v>246</v>
       </c>
       <c r="I565" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J565" s="44" t="s">
         <v>28</v>
@@ -42425,7 +42432,7 @@
         <v>246</v>
       </c>
       <c r="I566" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J566" s="44" t="s">
         <v>28</v>
@@ -42464,7 +42471,7 @@
         <v>246</v>
       </c>
       <c r="I567" s="38" t="s">
-        <v>15</v>
+        <v>1918</v>
       </c>
       <c r="J567" s="44" t="s">
         <v>28</v>
@@ -45601,7 +45608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C571FC8-D09A-427D-9DEB-BE1D7B9CDF7A}">
   <dimension ref="A1:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
